--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\flyordig\bidding_crawling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\김민규\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -249,14 +249,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF54" sqref="C1:AF54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,4468 +556,4570 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AF2" s="2"/>
+      <c r="AF2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="33" x14ac:dyDescent="0.3">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Z3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AE3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="2"/>
+      <c r="AF3" s="1"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>44873</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>12000</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>30000</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>45000</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>90000</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
+      <c r="N4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
         <v>30000</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>40000</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>90000</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>140000</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2">
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
         <v>2000</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="2">
+      <c r="W4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="1">
         <v>20000</v>
       </c>
-      <c r="Z4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="Z4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3">
+        <v>44873</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="3">
+        <v>44873</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>19270</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>38700</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>53500</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>80268</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>110900</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
         <v>20470</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>36180</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>58000</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>104680</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>170320</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
         <v>64540</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <v>76730</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>133100</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <v>223560</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="1">
         <v>259610</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
         <v>4700</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="1">
         <v>22510</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="1">
         <v>22670</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y6" s="1">
         <v>27890</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="1">
         <v>58130</v>
       </c>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>44894</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>3000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>7000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>20000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>27000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>68000</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
         <v>10000</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>16000</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>40000</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>50000</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>120000</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1">
         <v>35000</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>55000</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>75000</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>120000</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>165000</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
         <v>2000</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>13000</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>4000</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>16000</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>36000</v>
       </c>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="3">
+        <v>44894</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="3">
+        <v>44894</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>19660</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>37290</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>62490</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>80268</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>102020</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
         <v>18600</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>32400</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>56910</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>91900</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>169290</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1">
         <v>60310</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <v>80490</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <v>128830</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <v>193100</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="1">
         <v>258170</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2">
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
         <v>5450</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="1">
         <v>21800</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="1">
         <v>21740</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y9" s="1">
         <v>25980</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z9" s="1">
         <v>53320</v>
       </c>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>44897</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>3000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>6000</v>
       </c>
-      <c r="F10" s="2">
-        <v>15000</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G10" s="1">
         <v>25000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>68000</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <v>5000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>14000</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>35000</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>50000</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>90000</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1">
         <v>35000</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="1">
         <v>75000</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <v>120000</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="1">
         <v>160000</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
         <v>2000</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <v>13000</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="1">
         <v>4000</v>
       </c>
-      <c r="Y10" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z10" s="2">
+      <c r="Y10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z10" s="1">
         <v>35000</v>
       </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="3">
+        <v>44897</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="3">
+        <v>44897</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>19480</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>35920</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>53900</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>80268</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>101860</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
         <v>18580</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>31100</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>56640</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>88800</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>169070</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1">
         <v>59880</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <v>80490</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>124310</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="1">
         <v>187020</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="1">
         <v>257870</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
         <v>5800</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <v>21810</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="1">
         <v>21000</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Y12" s="1">
         <v>24760</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="Z12" s="1">
         <v>52040</v>
       </c>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>44901</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>3000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>6000</v>
       </c>
-      <c r="F13" s="2">
-        <v>15000</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G13" s="1">
         <v>25000</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>65000</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
         <v>5000</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>14000</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>35000</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>50000</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>90000</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
         <v>30000</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <v>55000</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>75000</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <v>120000</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="1">
         <v>160000</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
         <v>2000</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <v>13000</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="1">
         <v>4000</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Y13" s="1">
         <v>14000</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="Z13" s="1">
         <v>35000</v>
       </c>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>44901</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
         <v>5000</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>14000</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>35000</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>50000</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>100000</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
         <v>30000</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="1">
         <v>55000</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>75000</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <v>120000</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="1">
         <v>160000</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
         <v>2000</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <v>13000</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="1">
         <v>4000</v>
       </c>
-      <c r="Y14" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z14" s="2">
+      <c r="Y14" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z14" s="1">
         <v>35000</v>
       </c>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="3">
+        <v>44901</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>19490</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>35670</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>53900</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>80268</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>98480</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
         <v>16840</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>14000</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>56910</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>88450</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>167760</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
         <v>55000</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>81180</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>122620</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <v>179480</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="1">
         <v>246530</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
         <v>5560</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <v>21570</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="1">
         <v>20390</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Y15" s="1">
         <v>24660</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z15" s="1">
         <v>51180</v>
       </c>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>44908</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>3000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>6000</v>
       </c>
-      <c r="F16" s="2">
-        <v>15000</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G16" s="1">
         <v>35000</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>65000</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
         <v>5000</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>14000</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>35000</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>50000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>90000</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
         <v>30000</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="1">
         <v>55000</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <v>72000</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <v>115000</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="1">
         <v>160000</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
         <v>2000</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="1">
         <v>13000</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="1">
         <v>4000</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Y16" s="1">
         <v>14000</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="Z16" s="1">
         <v>35000</v>
       </c>
-      <c r="AA16" s="2">
+      <c r="AA16" s="1">
         <v>5000</v>
       </c>
-      <c r="AB16" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC16" s="2">
+      <c r="AB16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC16" s="1">
         <v>20000</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16" s="1">
         <v>25000</v>
       </c>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="3">
+        <v>44908</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2">
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
         <v>8000</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>18000</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>40000</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>55000</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2">
+      <c r="N17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1">
         <v>40000</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="1">
         <v>60000</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="1">
         <v>80000</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <v>125000</v>
       </c>
-      <c r="T17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2">
+      <c r="T17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
         <v>5000</v>
       </c>
-      <c r="W17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC17" s="2">
+      <c r="W17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC17" s="1">
         <v>20000</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AD17" s="1">
         <v>30000</v>
       </c>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="3">
+        <v>44908</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>13890</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>35520</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>41290</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>80268</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>98480</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
         <v>16500</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>29010</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>56750</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>80100</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>166400</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1">
         <v>54920</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="1">
         <v>81180</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="1">
         <v>117500</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="1">
         <v>179320</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="1">
         <v>246390</v>
       </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
         <v>5870</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="1">
         <v>21680</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="1">
         <v>20420</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Y18" s="1">
         <v>25140</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="Z18" s="1">
         <v>50710</v>
       </c>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>44915</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>3000</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>6000</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>18000</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>30000</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>65000</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
         <v>10000</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>20000</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>40000</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>55000</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>95000</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
         <v>35000</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="1">
         <v>60000</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="1">
         <v>80000</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="1">
         <v>120000</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="1">
         <v>165000</v>
       </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
         <v>2000</v>
       </c>
-      <c r="W19" s="2">
+      <c r="W19" s="1">
         <v>13000</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="1">
         <v>4000</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Y19" s="1">
         <v>16000</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="Z19" s="1">
         <v>36000</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AA19" s="1">
         <v>5000</v>
       </c>
-      <c r="AB19" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC19" s="2">
+      <c r="AB19" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC19" s="1">
         <v>20000</v>
       </c>
-      <c r="AD19" s="2">
+      <c r="AD19" s="1">
         <v>25000</v>
       </c>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3">
+        <v>44915</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>3000</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>6000</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>18000</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>30000</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>65000</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
         <v>5000</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>20000</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>40000</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>55000</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>95000</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1">
         <v>35000</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="1">
         <v>60000</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="1">
         <v>80000</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="1">
         <v>120000</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="1">
         <v>165000</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
         <v>2000</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="1">
         <v>13000</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="1">
         <v>4000</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Y20" s="1">
         <v>14000</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z20" s="1">
         <v>33000</v>
       </c>
-      <c r="AA20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC20" s="2">
+      <c r="AA20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC20" s="1">
         <v>25000</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AD20" s="1">
         <v>30000</v>
       </c>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3">
+        <v>44915</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>13940</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>34940</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>41290</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>80268</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>98480</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
         <v>15800</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>29020</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>55000</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>78900</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>160200</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2">
+      <c r="O21" s="1"/>
+      <c r="P21" s="1">
         <v>54900</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21" s="1">
         <v>82500</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="1">
         <v>125290</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="1">
         <v>186840</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="1">
         <v>257010</v>
       </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
         <v>5510</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="1">
         <v>21690</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="1">
         <v>19950</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="1">
         <v>25030</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="1">
         <v>51290</v>
       </c>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>44922</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>3000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>6000</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>18000</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>30000</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>70000</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
         <v>8000</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>17000</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>37000</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>55000</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>95000</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2">
+      <c r="O22" s="1"/>
+      <c r="P22" s="1">
         <v>40000</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="1">
         <v>60000</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="1">
         <v>80000</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="1">
         <v>120000</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="1">
         <v>170000</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
         <v>2000</v>
       </c>
-      <c r="W22" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X22" s="2">
+      <c r="W22" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X22" s="1">
         <v>4000</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Y22" s="1">
         <v>16000</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="Z22" s="1">
         <v>36000</v>
       </c>
-      <c r="AA22" s="2">
+      <c r="AA22" s="1">
         <v>5000</v>
       </c>
-      <c r="AB22" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC22" s="2">
+      <c r="AB22" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC22" s="1">
         <v>20000</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="1">
         <v>25000</v>
       </c>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="3">
+        <v>44922</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>3000</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>6000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>18000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>30000</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <v>65000</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
         <v>5000</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>20000</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>40000</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>55000</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="1">
         <v>95000</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2">
+      <c r="O23" s="1"/>
+      <c r="P23" s="1">
         <v>35000</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="1">
         <v>60000</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="1">
         <v>80000</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="1">
         <v>120000</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="1">
         <v>165000</v>
       </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
         <v>2000</v>
       </c>
-      <c r="W23" s="2">
+      <c r="W23" s="1">
         <v>13000</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="1">
         <v>4000</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Y23" s="1">
         <v>14000</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="Z23" s="1">
         <v>33000</v>
       </c>
-      <c r="AA23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC23" s="2">
+      <c r="AA23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC23" s="1">
         <v>25000</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23" s="1">
         <v>30000</v>
       </c>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3">
+        <v>44922</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>13660</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>34700</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>41290</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>80268</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>101630</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
         <v>18990</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>32900</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>54900</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>78900</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="1">
         <v>160200</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2">
+      <c r="O24" s="1"/>
+      <c r="P24" s="1">
         <v>61430</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="1">
         <v>82500</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="1">
         <v>125500</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="1">
         <v>186400</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="1">
         <v>251600</v>
       </c>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
         <v>5400</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="1">
         <v>22190</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="1">
         <v>16350</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Y24" s="1">
         <v>30850</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="Z24" s="1">
         <v>57990</v>
       </c>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>44929</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>3000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>6000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>18000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>30000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>70000</v>
       </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
         <v>8000</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>17000</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>35000</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>55000</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="1">
         <v>90000</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
         <v>40000</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="1">
         <v>60000</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="1">
         <v>90000</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="1">
         <v>120000</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="1">
         <v>170000</v>
       </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
         <v>2000</v>
       </c>
-      <c r="W25" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X25" s="2">
+      <c r="W25" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X25" s="1">
         <v>4000</v>
       </c>
-      <c r="Y25" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z25" s="2">
+      <c r="Y25" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z25" s="1">
         <v>36000</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AA25" s="1">
         <v>5000</v>
       </c>
-      <c r="AB25" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC25" s="2">
+      <c r="AB25" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC25" s="1">
         <v>20000</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AD25" s="1">
         <v>25000</v>
       </c>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>44929</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>3000</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>6000</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>18000</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>30000</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <v>65000</v>
       </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
         <v>5000</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>20000</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>40000</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>55000</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>95000</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2">
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
         <v>35000</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="1">
         <v>60000</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="1">
         <v>80000</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="1">
         <v>120000</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="1">
         <v>165000</v>
       </c>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1">
         <v>2000</v>
       </c>
-      <c r="W26" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X26" s="2">
+      <c r="W26" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X26" s="1">
         <v>4000</v>
       </c>
-      <c r="Y26" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z26" s="2">
+      <c r="Y26" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z26" s="1">
         <v>35000</v>
       </c>
-      <c r="AA26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC26" s="2">
+      <c r="AA26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC26" s="1">
         <v>25000</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AD26" s="1">
         <v>30000</v>
       </c>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="3">
+        <v>44929</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>13600</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>34320</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>41290</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>80268</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <v>101280</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
         <v>18190</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>31100</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>54900</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>84840</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <v>154000</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2">
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
         <v>61080</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <v>82500</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <v>125080</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <v>173000</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="1">
         <v>251280</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
         <v>5280</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="1">
         <v>22040</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="1">
         <v>16320</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="1">
         <v>30720</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="1">
         <v>57900</v>
       </c>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>44936</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>3000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>6000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>18000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>30000</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <v>70000</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
         <v>8000</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>17000</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>35000</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>50000</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <v>85000</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1">
         <v>35000</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <v>55000</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <v>85000</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1">
         <v>115000</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="1">
         <v>170000</v>
       </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1">
         <v>2000</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="1">
         <v>13000</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28" s="1">
         <v>4000</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="1">
         <v>12000</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28" s="1">
         <v>30000</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="1">
         <v>5000</v>
       </c>
-      <c r="AB28" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC28" s="2">
+      <c r="AB28" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC28" s="1">
         <v>20000</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AD28" s="1">
         <v>25000</v>
       </c>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="3">
+        <v>44936</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>3000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>6000</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>18000</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>30000</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <v>70000</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
         <v>5000</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>20000</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>35000</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>55000</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <v>90000</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1">
         <v>35000</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="1">
         <v>60000</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="1">
         <v>85000</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="1">
         <v>115000</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="1">
         <v>170000</v>
       </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2">
+      <c r="U29" s="1"/>
+      <c r="V29" s="1">
         <v>2000</v>
       </c>
-      <c r="W29" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X29" s="2">
+      <c r="W29" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X29" s="1">
         <v>4000</v>
       </c>
-      <c r="Y29" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z29" s="2">
+      <c r="Y29" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z29" s="1">
         <v>35000</v>
       </c>
-      <c r="AA29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC29" s="2">
+      <c r="AA29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC29" s="1">
         <v>25000</v>
       </c>
-      <c r="AD29" s="2">
+      <c r="AD29" s="1">
         <v>30000</v>
       </c>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3">
+        <v>44936</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>13420</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>34040</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>41290</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>80268</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <v>100950</v>
       </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
         <v>16790</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>31100</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>54000</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>84560</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <v>150720</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2">
+      <c r="O30" s="1"/>
+      <c r="P30" s="1">
         <v>57900</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30" s="1">
         <v>82500</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="1">
         <v>124750</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="1">
         <v>174780</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="1">
         <v>250760</v>
       </c>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1">
         <v>5000</v>
       </c>
-      <c r="W30" s="2">
+      <c r="W30" s="1">
         <v>21990</v>
       </c>
-      <c r="X30" s="2">
+      <c r="X30" s="1">
         <v>16290</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="Y30" s="1">
         <v>24200</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="Z30" s="1">
         <v>56270</v>
       </c>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>44943</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>3000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>6000</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>18000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>30000</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <v>70000</v>
       </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
         <v>8000</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>17000</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>35000</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>50000</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="1">
         <v>85000</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2">
+      <c r="O31" s="1"/>
+      <c r="P31" s="1">
         <v>35000</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="1">
         <v>55000</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="1">
         <v>80000</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="1">
         <v>110000</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="1">
         <v>165000</v>
       </c>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2">
+      <c r="U31" s="1"/>
+      <c r="V31" s="1">
         <v>2000</v>
       </c>
-      <c r="W31" s="2">
+      <c r="W31" s="1">
         <v>13000</v>
       </c>
-      <c r="X31" s="2">
+      <c r="X31" s="1">
         <v>4000</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Y31" s="1">
         <v>12000</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="Z31" s="1">
         <v>30000</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="AA31" s="1">
         <v>5000</v>
       </c>
-      <c r="AB31" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC31" s="2">
+      <c r="AB31" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC31" s="1">
         <v>20000</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31" s="1">
         <v>25000</v>
       </c>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="3">
+        <v>44943</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>3000</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>6000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>18000</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>30000</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="1">
         <v>70000</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
         <v>5000</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>20000</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>35000</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>55000</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="1">
         <v>90000</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2">
+      <c r="O32" s="1"/>
+      <c r="P32" s="1">
         <v>35000</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32" s="1">
         <v>60000</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="1">
         <v>85000</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="1">
         <v>115000</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="1">
         <v>170000</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2">
+      <c r="U32" s="1"/>
+      <c r="V32" s="1">
         <v>2000</v>
       </c>
-      <c r="W32" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X32" s="2">
+      <c r="W32" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X32" s="1">
         <v>4000</v>
       </c>
-      <c r="Y32" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z32" s="2">
+      <c r="Y32" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z32" s="1">
         <v>35000</v>
       </c>
-      <c r="AA32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC32" s="2">
+      <c r="AA32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC32" s="1">
         <v>25000</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32" s="1">
         <v>30000</v>
       </c>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="3">
+        <v>44943</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>11670</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>33710</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>41290</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>80268</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <v>97990</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
         <v>16500</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>29900</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="1">
         <v>60910</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="1">
         <v>84230</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <v>136680</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
         <v>54900</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33" s="1">
         <v>82500</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="1">
         <v>128150</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="1">
         <v>168940</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="1">
         <v>240170</v>
       </c>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2">
+      <c r="U33" s="1"/>
+      <c r="V33" s="1">
         <v>5000</v>
       </c>
-      <c r="W33" s="2">
+      <c r="W33" s="1">
         <v>21550</v>
       </c>
-      <c r="X33" s="2">
+      <c r="X33" s="1">
         <v>16200</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Y33" s="1">
         <v>24200</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="Z33" s="1">
         <v>53910</v>
       </c>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>11</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>44950</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>3000</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>6000</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>18000</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>30000</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="1">
         <v>70000</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
         <v>8000</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>17000</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="1">
         <v>35000</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="1">
         <v>50000</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="1">
         <v>85000</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1">
         <v>35000</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="1">
         <v>50000</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="1">
         <v>80000</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="1">
         <v>110000</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="1">
         <v>175000</v>
       </c>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1">
         <v>2000</v>
       </c>
-      <c r="W34" s="2">
+      <c r="W34" s="1">
         <v>13000</v>
       </c>
-      <c r="X34" s="2">
+      <c r="X34" s="1">
         <v>4000</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34" s="1">
         <v>12000</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="Z34" s="1">
         <v>30000</v>
       </c>
-      <c r="AA34" s="2">
+      <c r="AA34" s="1">
         <v>5000</v>
       </c>
-      <c r="AB34" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC34" s="2">
+      <c r="AB34" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC34" s="1">
         <v>20000</v>
       </c>
-      <c r="AD34" s="2">
+      <c r="AD34" s="1">
         <v>25000</v>
       </c>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="3">
+        <v>44950</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>3000</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>6000</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>18000</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>30000</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>70000</v>
       </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
         <v>5000</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>20000</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>35000</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>50000</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <v>85000</v>
       </c>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2">
+      <c r="O35" s="1"/>
+      <c r="P35" s="1">
         <v>35000</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="1">
         <v>60000</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35" s="1">
         <v>80000</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="1">
         <v>110000</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35" s="1">
         <v>165000</v>
       </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1">
         <v>2000</v>
       </c>
-      <c r="W35" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X35" s="2">
+      <c r="W35" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X35" s="1">
         <v>4000</v>
       </c>
-      <c r="Y35" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z35" s="2">
+      <c r="Y35" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z35" s="1">
         <v>35000</v>
       </c>
-      <c r="AA35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC35" s="2">
+      <c r="AA35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC35" s="1">
         <v>25000</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AD35" s="1">
         <v>30000</v>
       </c>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="3">
+        <v>44950</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>11890</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>33280</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>41290</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>80268</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="1">
         <v>99400</v>
       </c>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
         <v>16500</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>29900</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>54000</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="1">
         <v>77270</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="1">
         <v>136570</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2">
+      <c r="O36" s="1"/>
+      <c r="P36" s="1">
         <v>57900</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="1">
         <v>82410</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="1">
         <v>127250</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="1">
         <v>168580</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36" s="1">
         <v>239740</v>
       </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2">
+      <c r="U36" s="1"/>
+      <c r="V36" s="1">
         <v>5000</v>
       </c>
-      <c r="W36" s="2">
+      <c r="W36" s="1">
         <v>21440</v>
       </c>
-      <c r="X36" s="2">
+      <c r="X36" s="1">
         <v>16010</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Y36" s="1">
         <v>22850</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="Z36" s="1">
         <v>52100</v>
       </c>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>12</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>44957</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>3000</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>6000</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>18000</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>27000</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>65000</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>75000</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <v>9000</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>20000</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>38000</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <v>55000</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>85000</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <v>110000</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1">
         <v>40000</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="1">
         <v>50000</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="1">
         <v>85000</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1">
         <v>110000</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="1">
         <v>175000</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="1">
         <v>240000</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="1">
         <v>2000</v>
       </c>
-      <c r="W37" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X37" s="2">
+      <c r="W37" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X37" s="1">
         <v>4000</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="Y37" s="1">
         <v>12000</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="Z37" s="1">
         <v>30000</v>
       </c>
-      <c r="AA37" s="2">
+      <c r="AA37" s="1">
         <v>5000</v>
       </c>
-      <c r="AB37" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC37" s="2">
+      <c r="AB37" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC37" s="1">
         <v>20000</v>
       </c>
-      <c r="AD37" s="2">
+      <c r="AD37" s="1">
         <v>25000</v>
       </c>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="3">
+        <v>44957</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>3000</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>6000</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <v>18000</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>30000</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="1">
         <v>70000</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>75000</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="1">
         <v>8000</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>17000</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="1">
         <v>35000</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="1">
         <v>50000</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="1">
         <v>85000</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="1">
         <v>110000</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="1">
         <v>35000</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="1">
         <v>50000</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="1">
         <v>80000</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="1">
         <v>110000</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="1">
         <v>175000</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="1">
         <v>240000</v>
       </c>
-      <c r="V38" s="2">
+      <c r="V38" s="1">
         <v>2000</v>
       </c>
-      <c r="W38" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X38" s="2">
+      <c r="W38" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X38" s="1">
         <v>4000</v>
       </c>
-      <c r="Y38" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z38" s="2">
+      <c r="Y38" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z38" s="1">
         <v>35000</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC38" s="2">
+      <c r="AA38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC38" s="1">
         <v>25000</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38" s="1">
         <v>30000</v>
       </c>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3">
+        <v>44957</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>11720</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>32810</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <v>41290</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>80268</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <v>99160</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>157540</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <v>16190</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>29900</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="1">
         <v>55000</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="1">
         <v>71100</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="1">
         <v>136330</v>
       </c>
-      <c r="O39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P39" s="2">
+      <c r="O39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="1">
         <v>38390</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="1">
         <v>82450</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="1">
         <v>126980</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="1">
         <v>168890</v>
       </c>
-      <c r="T39" s="2">
+      <c r="T39" s="1">
         <v>233590</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="1">
         <v>376220</v>
       </c>
-      <c r="V39" s="2">
+      <c r="V39" s="1">
         <v>5100</v>
       </c>
-      <c r="W39" s="2">
+      <c r="W39" s="1">
         <v>21400</v>
       </c>
-      <c r="X39" s="2">
+      <c r="X39" s="1">
         <v>16050</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Y39" s="1">
         <v>22850</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="Z39" s="1">
         <v>55890</v>
       </c>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>44964</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>3000</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>4000</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="1">
         <v>18000</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>27000</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="1">
         <v>65000</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>75000</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="1">
         <v>9000</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>20000</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="1">
         <v>38000</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="1">
         <v>55000</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="1">
         <v>85000</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="1">
         <v>110000</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40" s="1">
         <v>40000</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40" s="1">
         <v>55000</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40" s="1">
         <v>85000</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="1">
         <v>130000</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T40" s="1">
         <v>175000</v>
       </c>
-      <c r="U40" s="2">
+      <c r="U40" s="1">
         <v>240000</v>
       </c>
-      <c r="V40" s="2">
+      <c r="V40" s="1">
         <v>2000</v>
       </c>
-      <c r="W40" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X40" s="2">
+      <c r="W40" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X40" s="1">
         <v>4000</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Y40" s="1">
         <v>12000</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="Z40" s="1">
         <v>30000</v>
       </c>
-      <c r="AA40" s="2">
+      <c r="AA40" s="1">
         <v>5000</v>
       </c>
-      <c r="AB40" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC40" s="2">
+      <c r="AB40" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC40" s="1">
         <v>20000</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AD40" s="1">
         <v>25000</v>
       </c>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="3">
+        <v>44964</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>3000</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>6000</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <v>18000</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>30000</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <v>70000</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>75000</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <v>8000</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>17000</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="1">
         <v>35000</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="1">
         <v>50000</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="1">
         <v>85000</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="1">
         <v>110000</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41" s="1">
         <v>35000</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="1">
         <v>50000</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41" s="1">
         <v>80000</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="1">
         <v>110000</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41" s="1">
         <v>175000</v>
       </c>
-      <c r="U41" s="2">
+      <c r="U41" s="1">
         <v>240000</v>
       </c>
-      <c r="V41" s="2">
+      <c r="V41" s="1">
         <v>2000</v>
       </c>
-      <c r="W41" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X41" s="2">
+      <c r="W41" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X41" s="1">
         <v>4000</v>
       </c>
-      <c r="Y41" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z41" s="2">
+      <c r="Y41" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z41" s="1">
         <v>35000</v>
       </c>
-      <c r="AA41" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC41" s="2">
+      <c r="AA41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC41" s="1">
         <v>25000</v>
       </c>
-      <c r="AD41" s="2">
+      <c r="AD41" s="1">
         <v>30000</v>
       </c>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3">
+        <v>44964</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>11660</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>32510</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>41290</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>78134</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="1">
         <v>98280</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>150300</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="1">
         <v>18040</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>30000</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="1">
         <v>55000</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="1">
         <v>79650</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42" s="1">
         <v>130530</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P42" s="2">
+      <c r="O42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="1">
         <v>57900</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="1">
         <v>82460</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42" s="1">
         <v>138560</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="1">
         <v>174730</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42" s="1">
         <v>238560</v>
       </c>
-      <c r="U42" s="2">
+      <c r="U42" s="1">
         <v>376220</v>
       </c>
-      <c r="V42" s="2">
+      <c r="V42" s="1">
         <v>5000</v>
       </c>
-      <c r="W42" s="2">
+      <c r="W42" s="1">
         <v>21780</v>
       </c>
-      <c r="X42" s="2">
+      <c r="X42" s="1">
         <v>16630</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Y42" s="1">
         <v>22610</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="Z42" s="1">
         <v>47090</v>
       </c>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>44971</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>3000</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>4000</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>18000</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>27000</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <v>65000</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>75000</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <v>9000</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>20000</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="1">
         <v>38000</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="1">
         <v>55000</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43" s="1">
         <v>85000</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="1">
         <v>110000</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43" s="1">
         <v>40000</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="1">
         <v>60000</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43" s="1">
         <v>85000</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="1">
         <v>130000</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43" s="1">
         <v>175000</v>
       </c>
-      <c r="U43" s="2">
+      <c r="U43" s="1">
         <v>240000</v>
       </c>
-      <c r="V43" s="2">
+      <c r="V43" s="1">
         <v>2000</v>
       </c>
-      <c r="W43" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X43" s="2">
+      <c r="W43" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X43" s="1">
         <v>4000</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Y43" s="1">
         <v>12000</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="Z43" s="1">
         <v>30000</v>
       </c>
-      <c r="AA43" s="2">
+      <c r="AA43" s="1">
         <v>5000</v>
       </c>
-      <c r="AB43" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC43" s="2">
+      <c r="AB43" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC43" s="1">
         <v>20000</v>
       </c>
-      <c r="AD43" s="2">
+      <c r="AD43" s="1">
         <v>25000</v>
       </c>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="3">
+        <v>44971</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>3000</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>6000</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="1">
         <v>18000</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>30000</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="1">
         <v>70000</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>75000</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="1">
         <v>8000</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>17000</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="1">
         <v>35000</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="1">
         <v>50000</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44" s="1">
         <v>85000</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1">
         <v>110000</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44" s="1">
         <v>35000</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="1">
         <v>50000</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="1">
         <v>80000</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="1">
         <v>110000</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44" s="1">
         <v>175000</v>
       </c>
-      <c r="U44" s="2">
+      <c r="U44" s="1">
         <v>240000</v>
       </c>
-      <c r="V44" s="2">
+      <c r="V44" s="1">
         <v>2000</v>
       </c>
-      <c r="W44" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X44" s="2">
+      <c r="W44" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X44" s="1">
         <v>4000</v>
       </c>
-      <c r="Y44" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z44" s="2">
+      <c r="Y44" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z44" s="1">
         <v>35000</v>
       </c>
-      <c r="AA44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC44" s="2">
+      <c r="AA44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC44" s="1">
         <v>25000</v>
       </c>
-      <c r="AD44" s="2">
+      <c r="AD44" s="1">
         <v>30000</v>
       </c>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="3">
+        <v>44971</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>11750</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>32960</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>37050</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>73856</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <v>95550</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <v>150300</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <v>18040</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>29580</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="1">
         <v>55000</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="1">
         <v>78840</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="1">
         <v>143010</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="1">
         <v>155900</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45" s="1">
         <v>58000</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="1">
         <v>82400</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45" s="1">
         <v>131990</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="1">
         <v>187010</v>
       </c>
-      <c r="T45" s="2">
+      <c r="T45" s="1">
         <v>237950</v>
       </c>
-      <c r="U45" s="2">
+      <c r="U45" s="1">
         <v>376220</v>
       </c>
-      <c r="V45" s="2">
+      <c r="V45" s="1">
         <v>5000</v>
       </c>
-      <c r="W45" s="2">
+      <c r="W45" s="1">
         <v>21430</v>
       </c>
-      <c r="X45" s="2">
+      <c r="X45" s="1">
         <v>16340</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="Y45" s="1">
         <v>22730</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="Z45" s="1">
         <v>55910</v>
       </c>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>15</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="3">
         <v>44978</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>3000</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>4000</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="1">
         <v>18000</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>27000</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="1">
         <v>65000</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="1">
         <v>75000</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="1">
         <v>9000</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>20000</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="1">
         <v>37000</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="1">
         <v>55000</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46" s="1">
         <v>85000</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="1">
         <v>110000</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46" s="1">
         <v>40000</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46" s="1">
         <v>60000</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46" s="1">
         <v>85000</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="1">
         <v>130000</v>
       </c>
-      <c r="T46" s="2">
+      <c r="T46" s="1">
         <v>165000</v>
       </c>
-      <c r="U46" s="2">
+      <c r="U46" s="1">
         <v>240000</v>
       </c>
-      <c r="V46" s="2">
+      <c r="V46" s="1">
         <v>1000</v>
       </c>
-      <c r="W46" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X46" s="2">
+      <c r="W46" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X46" s="1">
         <v>4000</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Y46" s="1">
         <v>12000</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="Z46" s="1">
         <v>30000</v>
       </c>
-      <c r="AA46" s="2">
+      <c r="AA46" s="1">
         <v>5000</v>
       </c>
-      <c r="AB46" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC46" s="2">
+      <c r="AB46" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC46" s="1">
         <v>20000</v>
       </c>
-      <c r="AD46" s="2">
+      <c r="AD46" s="1">
         <v>25000</v>
       </c>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="3">
+        <v>44978</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>2000</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>4000</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>18000</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>27000</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <v>65000</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <v>75000</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <v>9000</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>20000</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="1">
         <v>37000</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="1">
         <v>55000</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47" s="1">
         <v>85000</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="1">
         <v>110000</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47" s="1">
         <v>40000</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="1">
         <v>60000</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47" s="1">
         <v>85000</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="1">
         <v>130000</v>
       </c>
-      <c r="T47" s="2">
+      <c r="T47" s="1">
         <v>165000</v>
       </c>
-      <c r="U47" s="2">
+      <c r="U47" s="1">
         <v>240000</v>
       </c>
-      <c r="V47" s="2">
+      <c r="V47" s="1">
         <v>2000</v>
       </c>
-      <c r="W47" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X47" s="2">
+      <c r="W47" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X47" s="1">
         <v>4000</v>
       </c>
-      <c r="Y47" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z47" s="2">
+      <c r="Y47" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z47" s="1">
         <v>35000</v>
       </c>
-      <c r="AA47" s="2">
+      <c r="AA47" s="1">
         <v>0</v>
       </c>
-      <c r="AB47" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC47" s="2">
+      <c r="AB47" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC47" s="1">
         <v>25000</v>
       </c>
-      <c r="AD47" s="2">
+      <c r="AD47" s="1">
         <v>30000</v>
       </c>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="3">
+        <v>44978</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>11630</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>32580</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>41290</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>73856</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="1">
         <v>89130</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="1">
         <v>97460</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="1">
         <v>18280</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>29890</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="1">
         <v>55000</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="1">
         <v>79200</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48" s="1">
         <v>133500</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="1">
         <v>145640</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48" s="1">
         <v>59530</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48" s="1">
         <v>82500</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48" s="1">
         <v>131990</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48" s="1">
         <v>187010</v>
       </c>
-      <c r="T48" s="2">
+      <c r="T48" s="1">
         <v>237490</v>
       </c>
-      <c r="U48" s="2">
+      <c r="U48" s="1">
         <v>376220</v>
       </c>
-      <c r="V48" s="2">
+      <c r="V48" s="1">
         <v>5000</v>
       </c>
-      <c r="W48" s="2">
+      <c r="W48" s="1">
         <v>22080</v>
       </c>
-      <c r="X48" s="2">
+      <c r="X48" s="1">
         <v>16590</v>
       </c>
-      <c r="Y48" s="2">
+      <c r="Y48" s="1">
         <v>23990</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="Z48" s="1">
         <v>49240</v>
       </c>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>16</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="3">
         <v>44985</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>3000</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>4000</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>18000</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>27000</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <v>65000</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <v>75000</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <v>9000</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>17000</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="1">
         <v>37000</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="1">
         <v>55000</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="1">
         <v>85000</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1">
         <v>110000</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49" s="1">
         <v>45000</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49" s="1">
         <v>55000</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R49" s="1">
         <v>80000</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="1">
         <v>130000</v>
       </c>
-      <c r="T49" s="2">
+      <c r="T49" s="1">
         <v>160000</v>
       </c>
-      <c r="U49" s="2">
+      <c r="U49" s="1">
         <v>240000</v>
       </c>
-      <c r="V49" s="2">
+      <c r="V49" s="1">
         <v>1000</v>
       </c>
-      <c r="W49" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X49" s="2">
+      <c r="W49" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X49" s="1">
         <v>4000</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="Y49" s="1">
         <v>12000</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="Z49" s="1">
         <v>30000</v>
       </c>
-      <c r="AA49" s="2">
+      <c r="AA49" s="1">
         <v>5000</v>
       </c>
-      <c r="AB49" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC49" s="2">
+      <c r="AB49" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC49" s="1">
         <v>20000</v>
       </c>
-      <c r="AD49" s="2">
+      <c r="AD49" s="1">
         <v>25000</v>
       </c>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
+      <c r="AE49" s="1"/>
+      <c r="AF49" s="1"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="3">
+        <v>44985</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>2000</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>4000</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>18000</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>27000</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>65000</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>75000</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>9000</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>20000</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="1">
         <v>37000</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="1">
         <v>55000</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50" s="1">
         <v>85000</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1">
         <v>110000</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50" s="1">
         <v>40000</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50" s="1">
         <v>60000</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50" s="1">
         <v>85000</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="1">
         <v>130000</v>
       </c>
-      <c r="T50" s="2">
+      <c r="T50" s="1">
         <v>165000</v>
       </c>
-      <c r="U50" s="2">
+      <c r="U50" s="1">
         <v>240000</v>
       </c>
-      <c r="V50" s="2">
+      <c r="V50" s="1">
         <v>1000</v>
       </c>
-      <c r="W50" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X50" s="2">
+      <c r="W50" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X50" s="1">
         <v>4000</v>
       </c>
-      <c r="Y50" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z50" s="2">
+      <c r="Y50" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z50" s="1">
         <v>36000</v>
       </c>
-      <c r="AA50" s="2">
+      <c r="AA50" s="1">
         <v>0</v>
       </c>
-      <c r="AB50" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC50" s="2">
+      <c r="AB50" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC50" s="1">
         <v>25000</v>
       </c>
-      <c r="AD50" s="2">
+      <c r="AD50" s="1">
         <v>30000</v>
       </c>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
+      <c r="AE50" s="1"/>
+      <c r="AF50" s="1"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="3">
+        <v>44985</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>11760</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>32850</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>37450</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>75000</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <v>72000</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>98550</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <v>18390</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>28500</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="1">
         <v>55000</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="1">
         <v>84520</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="1">
         <v>133080</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="1">
         <v>150150</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51" s="1">
         <v>62570</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="1">
         <v>82500</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="1">
         <v>131990</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="1">
         <v>175870</v>
       </c>
-      <c r="T51" s="2">
+      <c r="T51" s="1">
         <v>237080</v>
       </c>
-      <c r="U51" s="2">
+      <c r="U51" s="1">
         <v>365620</v>
       </c>
-      <c r="V51" s="2">
+      <c r="V51" s="1">
         <v>5740</v>
       </c>
-      <c r="W51" s="2">
+      <c r="W51" s="1">
         <v>19800</v>
       </c>
-      <c r="X51" s="2">
+      <c r="X51" s="1">
         <v>14920</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="Y51" s="1">
         <v>23350</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="Z51" s="1">
         <v>45300</v>
       </c>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
+      <c r="AA51" s="1"/>
+      <c r="AB51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AD51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AF51" s="1"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>17</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="3">
         <v>44992</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>3000</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>4000</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>18000</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>22000</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>65000</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>75000</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="1">
         <v>8000</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>17000</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="1">
         <v>37000</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="1">
         <v>50000</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52" s="1">
         <v>85000</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="1">
         <v>100000</v>
       </c>
-      <c r="P52" s="2">
+      <c r="P52" s="1">
         <v>40000</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="Q52" s="1">
         <v>45000</v>
       </c>
-      <c r="R52" s="2">
+      <c r="R52" s="1">
         <v>80000</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="1">
         <v>130000</v>
       </c>
-      <c r="T52" s="2">
+      <c r="T52" s="1">
         <v>155000</v>
       </c>
-      <c r="U52" s="2">
+      <c r="U52" s="1">
         <v>220000</v>
       </c>
-      <c r="V52" s="2">
+      <c r="V52" s="1">
         <v>1000</v>
       </c>
-      <c r="W52" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X52" s="2">
+      <c r="W52" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X52" s="1">
         <v>4000</v>
       </c>
-      <c r="Y52" s="2">
+      <c r="Y52" s="1">
         <v>12000</v>
       </c>
-      <c r="Z52" s="2">
+      <c r="Z52" s="1">
         <v>30000</v>
       </c>
-      <c r="AA52" s="2">
+      <c r="AA52" s="1">
         <v>5000</v>
       </c>
-      <c r="AB52" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC52" s="2">
+      <c r="AB52" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC52" s="1">
         <v>20000</v>
       </c>
-      <c r="AD52" s="2">
+      <c r="AD52" s="1">
         <v>25000</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AE52" s="1">
         <v>40000</v>
       </c>
-      <c r="AF52" s="2"/>
+      <c r="AF52" s="1"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="3">
+        <v>44992</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>2000</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>4000</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>18000</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>27000</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <v>65000</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>75000</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <v>9000</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>20000</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="1">
         <v>37000</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="1">
         <v>55000</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53" s="1">
         <v>85000</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="1">
         <v>110000</v>
       </c>
-      <c r="P53" s="2">
+      <c r="P53" s="1">
         <v>40000</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="Q53" s="1">
         <v>60000</v>
       </c>
-      <c r="R53" s="2">
+      <c r="R53" s="1">
         <v>85000</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="1">
         <v>130000</v>
       </c>
-      <c r="T53" s="2">
+      <c r="T53" s="1">
         <v>165000</v>
       </c>
-      <c r="U53" s="2">
+      <c r="U53" s="1">
         <v>240000</v>
       </c>
-      <c r="V53" s="2">
+      <c r="V53" s="1">
         <v>1000</v>
       </c>
-      <c r="W53" s="2">
-        <v>15000</v>
-      </c>
-      <c r="X53" s="2">
+      <c r="W53" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X53" s="1">
         <v>4000</v>
       </c>
-      <c r="Y53" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z53" s="2">
+      <c r="Y53" s="1">
+        <v>15000</v>
+      </c>
+      <c r="Z53" s="1">
         <v>36000</v>
       </c>
-      <c r="AA53" s="2">
+      <c r="AA53" s="1">
         <v>0</v>
       </c>
-      <c r="AB53" s="2">
-        <v>15000</v>
-      </c>
-      <c r="AC53" s="2">
+      <c r="AB53" s="1">
+        <v>15000</v>
+      </c>
+      <c r="AC53" s="1">
         <v>25000</v>
       </c>
-      <c r="AD53" s="2">
+      <c r="AD53" s="1">
         <v>30000</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AE53" s="1">
         <v>40000</v>
       </c>
-      <c r="AF53" s="2"/>
+      <c r="AF53" s="1"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="3">
+        <v>44992</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>11760</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>32850</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>37450</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>75000</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>72000</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <v>98550</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="1">
         <v>18390</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>28500</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>55390</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <v>84520</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <v>132780</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <v>138730</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <v>58000</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="1">
         <v>82500</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="1">
         <v>126990</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="1">
         <v>191700</v>
       </c>
-      <c r="T54" s="2">
+      <c r="T54" s="1">
         <v>226090</v>
       </c>
-      <c r="U54" s="2">
+      <c r="U54" s="1">
         <v>360320</v>
       </c>
-      <c r="V54" s="2">
+      <c r="V54" s="1">
         <v>5740</v>
       </c>
-      <c r="W54" s="2">
+      <c r="W54" s="1">
         <v>19800</v>
       </c>
-      <c r="X54" s="2">
+      <c r="X54" s="1">
         <v>14920</v>
       </c>
-      <c r="Y54" s="2">
+      <c r="Y54" s="1">
         <v>23350</v>
       </c>
-      <c r="Z54" s="2">
+      <c r="Z54" s="1">
         <v>45300</v>
       </c>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
